--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Alans Infinity.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Alans Infinity.xlsx_with_dialog_acts.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
